--- a/Catalogo.xlsx
+++ b/Catalogo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\PC_optimizacion\Tesis Luis Leon\Códigos Función min costos\Códigos finales\Aplicacion streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MODIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE413864-CD5E-4284-A2CD-12FA02BEAE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A5192-0B8B-4633-8746-F4FF09BA39C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="599" activeTab="4" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="599" activeTab="1" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
   </bookViews>
   <sheets>
     <sheet name="PVModules" sheetId="25" r:id="rId1"/>
-    <sheet name="BattModules" sheetId="26" r:id="rId2"/>
+    <sheet name="BattModuleS" sheetId="26" r:id="rId2"/>
     <sheet name="Generator" sheetId="35" r:id="rId3"/>
     <sheet name="Hybrid OnGrid" sheetId="37" r:id="rId4"/>
     <sheet name="WindTurbines" sheetId="38" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>Area (m2)</t>
   </si>
@@ -421,6 +421,54 @@
   </si>
   <si>
     <t>Vida útil (años)</t>
+  </si>
+  <si>
+    <t>Tiger LM-445W</t>
+  </si>
+  <si>
+    <t>Znshine NH 144-445W</t>
+  </si>
+  <si>
+    <t>Tiger Mono Facial-465W</t>
+  </si>
+  <si>
+    <t>Risen-590W</t>
+  </si>
+  <si>
+    <t>EcoGreen-540W</t>
+  </si>
+  <si>
+    <t>EcoGreen-450</t>
+  </si>
+  <si>
+    <t>JA Solar-455</t>
+  </si>
+  <si>
+    <t>JA Solar-450</t>
+  </si>
+  <si>
+    <t>Pylontech-US2000C</t>
+  </si>
+  <si>
+    <t>Pylontech-US3000</t>
+  </si>
+  <si>
+    <t>Pylontech-US5000</t>
+  </si>
+  <si>
+    <t>Pylontech-UP2500</t>
+  </si>
+  <si>
+    <t>Pylontech-Phantom S</t>
+  </si>
+  <si>
+    <t>NCL-80Ah</t>
+  </si>
+  <si>
+    <t>Creado por el usuario</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -442,12 +490,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -462,12 +516,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3386-F6B0-4296-A730-E04C7B4A8BD3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,9 +854,17 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -809,8 +877,35 @@
       <c r="D1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -823,215 +918,687 @@
       <c r="D2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>187.89</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>206.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="4">
+        <v>189.44</v>
+      </c>
+      <c r="F3" s="4">
+        <v>196.38</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1998.69</v>
+      </c>
+      <c r="H3" s="4">
+        <v>275.02</v>
+      </c>
+      <c r="I3" s="4">
+        <v>253.24</v>
+      </c>
+      <c r="J3" s="4">
+        <v>205.85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>194.55</v>
+      </c>
+      <c r="L3" s="4">
+        <v>183.76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>4.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1.95</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <f>+E16*E17</f>
+        <v>2.1777440000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:L5" si="0">+F16*F17</f>
+        <v>2.1526999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1736</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5763999999999996</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>22.302399999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>22.302399999999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>370</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="8">
+        <v>445</v>
+      </c>
+      <c r="F6" s="8">
+        <v>465</v>
+      </c>
+      <c r="G6" s="8">
+        <v>445</v>
+      </c>
+      <c r="H6" s="8">
+        <v>590</v>
+      </c>
+      <c r="I6" s="8">
+        <v>540</v>
+      </c>
+      <c r="J6" s="8">
+        <v>450</v>
+      </c>
+      <c r="K6" s="8">
+        <v>455</v>
+      </c>
+      <c r="L6" s="8">
+        <v>450</v>
+      </c>
+      <c r="M6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="5">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.65</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>48.3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>49.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>49.07</v>
+      </c>
+      <c r="F9" s="7">
+        <v>51.92</v>
+      </c>
+      <c r="G9" s="7">
+        <v>50.1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="J9" s="7">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7">
+        <v>49.85</v>
+      </c>
+      <c r="L9" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>9.85</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>11.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>11.46</v>
+      </c>
+      <c r="F10" s="7">
+        <v>11.59</v>
+      </c>
+      <c r="G10" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18.21</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13.81</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="K10" s="7">
+        <v>11.41</v>
+      </c>
+      <c r="L10" s="7">
+        <v>11.36</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>39.299999999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>41.17</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43.18</v>
+      </c>
+      <c r="G11" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>34.32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>41.4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>41.82</v>
+      </c>
+      <c r="L11" s="7">
+        <v>41.52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>9.41</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>10.81</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10.77</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>13.11</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10.87</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10.88</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10.84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>-0.28000000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>-0.4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.36</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-0.36</v>
+      </c>
+      <c r="H15" s="7">
+        <v>-0.34</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-0.36</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-0.35</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-0.35</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-0.35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>1.95</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>2.0950000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>1.0389999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10.52</v>
+      </c>
+      <c r="L17" s="7">
+        <v>10.52</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1041,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8590178-7E48-4D91-905D-79485D6F38C6}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,9 +1619,15 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1067,8 +1640,32 @@
       <c r="D1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1081,8 +1678,32 @@
       <c r="D2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1095,22 +1716,70 @@
       <c r="D3">
         <v>1168</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>1424.88</v>
+      </c>
+      <c r="F3">
+        <v>1723.13</v>
+      </c>
+      <c r="G3">
+        <v>2229.2600000000002</v>
+      </c>
+      <c r="H3">
+        <v>1140.96</v>
+      </c>
+      <c r="I3">
+        <v>1444.27</v>
+      </c>
+      <c r="J3">
+        <v>2408.9</v>
+      </c>
+      <c r="K3">
+        <v>1637.98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1123,8 +1792,32 @@
       <c r="D5">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2.4</v>
+      </c>
+      <c r="F5">
+        <v>3.2</v>
+      </c>
+      <c r="G5">
+        <v>4.8</v>
+      </c>
+      <c r="H5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I5">
+        <v>3.3744000000000001</v>
+      </c>
+      <c r="J5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K5">
+        <v>3.84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1137,8 +1830,34 @@
       <c r="D6">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <v>0.32</v>
+      </c>
+      <c r="G6">
+        <v>0.48</v>
+      </c>
+      <c r="H6">
+        <v>0.255</v>
+      </c>
+      <c r="I6">
+        <f>+I5*0.1</f>
+        <v>0.33744000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.22</v>
+      </c>
+      <c r="K6">
+        <f>+K5*0.1</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1151,8 +1870,39 @@
       <c r="D7">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" ref="E7:K7" si="0">+E5*E15</f>
+        <v>2.4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.3744000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.254</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1165,36 +1915,115 @@
       <c r="D8">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8">
+        <f>+E5*E15</f>
+        <v>2.4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:K8" si="1">+F5*F15</f>
+        <v>3.2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3.3744000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.254</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.98</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="6">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6">
+        <v>15</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1207,8 +2036,32 @@
       <c r="D11">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +2074,32 @@
       <c r="D12">
         <v>6000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6000</v>
+      </c>
+      <c r="F12">
+        <v>6000</v>
+      </c>
+      <c r="G12">
+        <v>6000</v>
+      </c>
+      <c r="H12">
+        <v>6000</v>
+      </c>
+      <c r="I12">
+        <v>6000</v>
+      </c>
+      <c r="J12">
+        <v>6000</v>
+      </c>
+      <c r="K12">
+        <v>6000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1230,29 +2107,84 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <f>((0.2*C5)/C12)/(C5-C6)</f>
+        <f t="shared" ref="C13:K13" si="2">((0.2*C5)/C12)/(C5-C6)</f>
         <v>4.6783625730994155E-5</v>
       </c>
       <c r="D13">
-        <f>((0.2*D5)/D12)/(D5-D6)</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666665E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>3.5087719298245611E-5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037043E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>3.703703703703703E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037043E-5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037037E-5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037037E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037037E-5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1.075E-4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1.075E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.075E-4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1264,6 +2196,30 @@
       </c>
       <c r="D15">
         <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.79</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D33661-7077-4E44-AAF7-ADB95825EE3A}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,9 +2334,10 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1393,8 +2350,11 @@
       <c r="D1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1407,8 +2367,11 @@
       <c r="D2">
         <v>2126</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1421,8 +2384,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1435,8 +2401,11 @@
       <c r="D4">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1449,8 +2418,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1463,8 +2435,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1477,8 +2452,11 @@
       <c r="D7">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1491,8 +2469,11 @@
       <c r="D8">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1505,8 +2486,11 @@
       <c r="D9">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1519,8 +2503,11 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1533,8 +2520,11 @@
       <c r="D11">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1547,8 +2537,11 @@
       <c r="D12">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1561,8 +2554,11 @@
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1575,8 +2571,11 @@
       <c r="D14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1589,8 +2588,11 @@
       <c r="D15">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1603,8 +2605,11 @@
       <c r="D16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1617,8 +2622,11 @@
       <c r="D17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1631,8 +2639,11 @@
       <c r="D18">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1645,8 +2656,11 @@
       <c r="D19">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1658,6 +2672,9 @@
       </c>
       <c r="D20">
         <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1667,18 +2684,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C6186E-550B-4AF5-A8BE-CBC5237E8F1D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1694,8 +2712,11 @@
       <c r="E1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1711,8 +2732,11 @@
       <c r="E2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1728,8 +2752,11 @@
       <c r="E3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1745,8 +2772,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1762,8 +2792,11 @@
       <c r="E5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -1779,8 +2812,11 @@
       <c r="E6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1796,8 +2832,11 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -1813,8 +2852,11 @@
       <c r="E8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -1829,6 +2871,9 @@
       </c>
       <c r="E9">
         <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Catalogo.xlsx
+++ b/Catalogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MODIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A5192-0B8B-4633-8746-F4FF09BA39C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CDB0F4-1368-44F1-9F2F-19BF60D0C44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="599" activeTab="1" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
   </bookViews>
   <sheets>
     <sheet name="PVModules" sheetId="25" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,10 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3386-F6B0-4296-A730-E04C7B4A8BD3}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +941,7 @@
       <c r="L2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -983,220 +982,220 @@
       <c r="L3" s="4">
         <v>183.76</v>
       </c>
-      <c r="M3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>4.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>1.95</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <f>+E16*E17</f>
         <v>2.1777440000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:L5" si="0">+F16*F17</f>
         <v>2.1526999999999998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>2.1736</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>2.8210000000000002</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>2.5763999999999996</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>2.1840000000000002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>22.302399999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <f t="shared" si="0"/>
         <v>22.302399999999999</v>
       </c>
-      <c r="M5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="M5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>370</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>450</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>445</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>465</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>445</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>590</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>540</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>450</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>455</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>450</v>
       </c>
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="M6" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>25</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>25</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>25</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>25</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>25</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>25</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>25</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="M7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.65</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.65</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.65</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.65</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>0.65</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>0.65</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>0.65</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>0.65</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>0.65</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>0.65</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1216,34 +1215,34 @@
       <c r="E9" s="4">
         <v>49.07</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>51.92</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>50.1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>41.2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>49.4</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>50</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>49.85</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>49.7</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="M9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1261,34 +1260,34 @@
       <c r="E10" s="4">
         <v>11.46</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>11.59</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>11.4</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>18.21</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>13.81</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>11.44</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>11.41</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>11.36</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="M10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1306,34 +1305,34 @@
       <c r="E11" s="4">
         <v>41.17</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>43.18</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>41.2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>34.32</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>41.2</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>41.4</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>41.82</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>41.52</v>
       </c>
-      <c r="M11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="M11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1351,34 +1350,34 @@
       <c r="E12" s="4">
         <v>10.81</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>10.77</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>10.81</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>17.2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>13.11</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>10.87</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>10.88</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>10.84</v>
       </c>
-      <c r="M12" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="M12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1396,34 +1395,34 @@
       <c r="E13" s="4">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>-0.25</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>-0.3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>-0.27</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>-0.27</v>
       </c>
-      <c r="M13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="M13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1441,34 +1440,34 @@
       <c r="E14" s="4">
         <v>0.05</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.05</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.05</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.04</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>0.05</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>0.05</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="M14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1486,34 +1485,34 @@
       <c r="E15" s="4">
         <v>-0.35</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>-0.36</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>-0.36</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>-0.34</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>-0.36</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>-0.35</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>-0.35</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>-0.35</v>
       </c>
-      <c r="M15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="M15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1531,34 +1530,34 @@
       <c r="E16" s="4">
         <v>2.0960000000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2.09</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2.09</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>2.17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>2.1</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>2.12</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>2.12</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="M16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1576,28 +1575,28 @@
       <c r="E17" s="4">
         <v>1.0389999999999999</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>1.03</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>1.04</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>1.3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>1.04</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>10.52</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>10.52</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1610,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8590178-7E48-4D91-905D-79485D6F38C6}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,446 +1740,446 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>4.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>2.56</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2.4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>3.2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>4.8</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>3.3744000000000001</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>3.84</v>
       </c>
-      <c r="L5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="L5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.51200000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.32</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.48</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.255</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f>+I5*0.1</f>
         <v>0.33744000000000002</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>0.22</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f>+K5*0.1</f>
         <v>0.38400000000000001</v>
       </c>
-      <c r="L6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="L6" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>2.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>1.28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f t="shared" ref="E7:K7" si="0">+E5*E15</f>
         <v>2.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>3.7919999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>3.3744000000000001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>1.254</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="L7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="L7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>1.28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f>+E5*E15</f>
         <v>2.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" ref="F8:K8" si="1">+F5*F15</f>
         <v>3.2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>3.7919999999999998</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>3.3744000000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>1.254</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="L8" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.98</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.98</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.98</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>0.98</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>0.98</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>0.98</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>0.98</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>0.98</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>0.98</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="L9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>13</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>13</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>10</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>15</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>15</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>10</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="L10" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>48</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>48</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>48</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>48</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>48</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>48</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>48</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>48</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="L11" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>4500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>6000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>6000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>6000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>6000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>6000</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>6000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>6000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>6000</v>
       </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="L12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" ref="C13:K13" si="2">((0.2*C5)/C12)/(C5-C6)</f>
         <v>4.6783625730994155E-5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <f t="shared" si="2"/>
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <f t="shared" si="2"/>
         <v>3.5087719298245611E-5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>3.7037037037037043E-5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>3.703703703703703E-5</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>3.7037037037037043E-5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <f t="shared" si="2"/>
         <v>3.7037037037037037E-5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
+        <f>((0.2*J5)/J12)/(J5-J6)</f>
+        <v>3.7037037037037037E-5</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="2"/>
         <v>3.7037037037037037E-5</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>3.7037037037037037E-5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="L13" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>1.075E-4</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Catalogo.xlsx
+++ b/Catalogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MODIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CDB0F4-1368-44F1-9F2F-19BF60D0C44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E7F03-4F73-4234-9663-B660397EBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="5" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
   </bookViews>
   <sheets>
     <sheet name="PVModules" sheetId="25" r:id="rId1"/>
@@ -490,18 +490,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,13 +510,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -941,7 +934,7 @@
       <c r="L2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -952,250 +945,250 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>187.89</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>206.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>189.44</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>196.38</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1998.69</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>275.02</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>253.24</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>205.85</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>194.55</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>183.76</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>4.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>5</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>5</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1.95</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>+E16*E17</f>
         <v>2.1777440000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:L5" si="0">+F16*F17</f>
         <v>2.1526999999999998</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>2.1736</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>2.8210000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>2.5763999999999996</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>2.1840000000000002</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>22.302399999999999</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>22.302399999999999</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="M5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>370</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>450</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>445</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>465</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>445</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>590</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>540</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>450</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>455</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>450</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="M6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>25</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>25</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>25</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>25</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>25</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>25</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>25</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>25</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="M7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.65</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.65</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.65</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.65</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.65</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.65</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.65</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.65</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.65</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.65</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1206,43 +1199,43 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>48.3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>49.98</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>49.07</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>51.92</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>50.1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>41.2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>49.4</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>50</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>49.85</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>49.7</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1251,43 +1244,43 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9.85</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>11.54</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>11.46</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>11.59</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>11.4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>18.21</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>13.81</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>11.44</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>11.41</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>11.36</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1296,43 +1289,43 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>41.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>41.17</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>43.18</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>41.2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>34.32</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>41.2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>41.4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>41.82</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>41.52</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="M11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1341,43 +1334,43 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>9.41</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>10.87</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>10.81</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>10.77</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>10.81</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>17.2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>13.11</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>10.87</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>10.88</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>10.84</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1386,43 +1379,43 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>-0.25</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>-0.3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>-0.27</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>-0.27</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1431,43 +1424,43 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.05</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.05</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.05</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.05</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.05</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.04</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>0.05</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.05</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1476,43 +1469,43 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>-0.4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-0.36</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-0.35</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>-0.36</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>-0.36</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>-0.34</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>-0.36</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>-0.35</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>-0.35</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>-0.35</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="M15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1521,43 +1514,43 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1.95</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2.0950000000000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>2.0960000000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>2.09</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>2.09</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>2.17</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>2.1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>2.12</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>2.12</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="M16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1566,37 +1559,37 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1.0389999999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1.0389999999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1.03</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1.04</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1.3</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>1.04</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>10.52</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>10.52</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1609,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8590178-7E48-4D91-905D-79485D6F38C6}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1740,446 +1733,446 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2.56</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4.8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>3.3744000000000001</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>3.84</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.51200000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.32</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.48</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.255</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>+I5*0.1</f>
         <v>0.33744000000000002</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.22</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>+K5*0.1</f>
         <v>0.38400000000000001</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="L6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2.4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.28</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" ref="E7:K7" si="0">+E5*E15</f>
         <v>2.4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>3.7919999999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>3.3744000000000001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>1.254</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="L7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2.4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.28</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>+E5*E15</f>
         <v>2.4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" ref="F8:K8" si="1">+F5*F15</f>
         <v>3.2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>3.7919999999999998</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>3.3744000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>1.254</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="L8" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.98</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.98</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.98</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.98</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.98</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.98</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.98</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.98</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0.98</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="L9" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>13</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>15</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>15</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>10</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>48</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>48</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>48</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>48</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>48</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>48</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>48</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>48</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>48</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="L11" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4500</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>6000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>6000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>6000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>6000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>6000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>6000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>6000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>6000</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="L12" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:K13" si="2">((0.2*C5)/C12)/(C5-C6)</f>
         <v>4.6783625730994155E-5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="2"/>
         <v>3.5087719298245611E-5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="2"/>
         <v>3.7037037037037043E-5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>3.703703703703703E-5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>3.7037037037037043E-5</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="2"/>
         <v>3.7037037037037037E-5</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>((0.2*J5)/J12)/(J5-J6)</f>
         <v>3.7037037037037037E-5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
         <v>3.7037037037037037E-5</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="L13" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>1.075E-4</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2324,7 +2317,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E1" sqref="E1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2342,7 @@
       <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2366,7 +2359,7 @@
       <c r="D2">
         <v>2126</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2383,7 +2376,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2400,7 +2393,7 @@
       <c r="D4">
         <v>6.65</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2417,7 +2410,7 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2434,7 +2427,7 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2451,7 +2444,7 @@
       <c r="D7">
         <v>600</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2468,7 +2461,7 @@
       <c r="D8">
         <v>120</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2485,7 +2478,7 @@
       <c r="D9">
         <v>360</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2502,7 +2495,7 @@
       <c r="D10">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2519,7 +2512,7 @@
       <c r="D11">
         <v>0.94</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2536,7 +2529,7 @@
       <c r="D12">
         <v>0.95</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2553,7 +2546,7 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2570,7 +2563,7 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2587,7 +2580,7 @@
       <c r="D15">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2604,7 +2597,7 @@
       <c r="D16">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2621,7 +2614,7 @@
       <c r="D17">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2638,7 +2631,7 @@
       <c r="D18">
         <v>140</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2655,7 +2648,7 @@
       <c r="D19">
         <v>140</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2672,7 +2665,7 @@
       <c r="D20">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2686,7 +2679,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2704,7 @@
       <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2731,7 +2724,7 @@
       <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2751,7 +2744,7 @@
       <c r="E3">
         <v>1100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2771,7 +2764,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2791,7 +2784,7 @@
       <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2811,7 +2804,7 @@
       <c r="E6">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2831,7 +2824,7 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2851,7 +2844,7 @@
       <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2871,7 +2864,7 @@
       <c r="E9">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2884,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CC0D24-3C64-426B-B862-F2C03B105542}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/Catalogo.xlsx
+++ b/Catalogo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MODIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E7F03-4F73-4234-9663-B660397EBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225C5F4-39A5-40E7-9858-0D59B200584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="5" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
   </bookViews>
   <sheets>
-    <sheet name="PVModules" sheetId="25" r:id="rId1"/>
+    <sheet name="PVModuleS" sheetId="25" r:id="rId1"/>
     <sheet name="BattModuleS" sheetId="26" r:id="rId2"/>
     <sheet name="Generator" sheetId="35" r:id="rId3"/>
     <sheet name="Hybrid OnGrid" sheetId="37" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
   <si>
     <t>Area (m2)</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Quattro 5kW</t>
+  </si>
+  <si>
+    <t>Quattr0 10kW</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,6 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3386-F6B0-4296-A730-E04C7B4A8BD3}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D33661-7077-4E44-AAF7-ADB95825EE3A}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,10 +2338,12 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2342,11 +2356,17 @@
       <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2359,11 +2379,18 @@
       <c r="D2">
         <v>2126</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="7">
+        <f>10800/4.5</f>
+        <v>2400</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3773</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2376,11 +2403,17 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2393,11 +2426,17 @@
       <c r="D4">
         <v>6.65</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2410,11 +2449,17 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -2427,11 +2472,17 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2444,11 +2495,17 @@
       <c r="D7">
         <v>600</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2461,11 +2518,17 @@
       <c r="D8">
         <v>120</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2478,11 +2541,17 @@
       <c r="D9">
         <v>360</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2495,11 +2564,17 @@
       <c r="D10">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2512,11 +2587,17 @@
       <c r="D11">
         <v>0.94</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2529,11 +2610,17 @@
       <c r="D12">
         <v>0.95</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -2546,11 +2633,17 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2563,11 +2656,17 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2580,11 +2679,17 @@
       <c r="D15">
         <v>48</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="7">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2597,11 +2702,17 @@
       <c r="D16">
         <v>100</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2614,11 +2725,17 @@
       <c r="D17">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2631,11 +2748,17 @@
       <c r="D18">
         <v>140</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="7">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7">
+        <v>140</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2648,11 +2771,17 @@
       <c r="D19">
         <v>140</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2665,7 +2794,13 @@
       <c r="D20">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2877,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CC0D24-3C64-426B-B862-F2C03B105542}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/Catalogo.xlsx
+++ b/Catalogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MODIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\MODIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225C5F4-39A5-40E7-9858-0D59B200584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC33E0-C73F-4A31-ABF1-94A1A209B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="12405" windowHeight="11205" tabRatio="599" firstSheet="1" activeTab="3" xr2:uid="{27070F80-89CF-4E15-8F14-835BDE193743}"/>
   </bookViews>
   <sheets>
     <sheet name="PVModuleS" sheetId="25" r:id="rId1"/>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3386-F6B0-4296-A730-E04C7B4A8BD3}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D33661-7077-4E44-AAF7-ADB95825EE3A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>142</v>
